--- a/benchmark/results/summary.xlsx
+++ b/benchmark/results/summary.xlsx
@@ -10952,7 +10952,7 @@
         <v>0.988726897591261</v>
       </c>
       <c r="D34" s="2">
-        <v>0.987353247631612</v>
+        <v>0.9873532476316121</v>
       </c>
       <c r="E34" s="2">
         <v>0.9872569668101728</v>
